--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -165,7 +165,7 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Sample Departure</t>
+    <t>Sample Pickup</t>
   </si>
   <si>
     <t>sdepart</t>
@@ -266,6 +266,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -274,11 +278,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -479,7 +479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -585,7 +585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -30,6 +30,9 @@
     <t>appearance</t>
   </si>
   <si>
+    <t>relevant</t>
+  </si>
+  <si>
     <t>start</t>
   </si>
   <si>
@@ -87,7 +90,7 @@
     <t>srepeat</t>
   </si>
   <si>
-    <t>New Sample</t>
+    <t>New Scan</t>
   </si>
   <si>
     <t>barcode</t>
@@ -105,7 +108,7 @@
     <t>stype</t>
   </si>
   <si>
-    <t>Specimen Type</t>
+    <t>Scan Type</t>
   </si>
   <si>
     <t>quick search('stypes')</t>
@@ -121,6 +124,9 @@
   </si>
   <si>
     <t>quick search('conditions')</t>
+  </si>
+  <si>
+    <t>not(selected(${stype}, 'form'))</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -221,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -230,6 +236,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -266,10 +275,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
 <file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
@@ -278,7 +283,11 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -306,180 +315,183 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="D12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>36</v>
+      <c r="A13" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -488,7 +500,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -496,96 +508,96 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>43</v>
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>47</v>
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -593,19 +605,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>49</v>
+      <c r="A1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>51</v>
+      <c r="A2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -171,7 +171,7 @@
     <t>form_id</t>
   </si>
   <si>
-    <t>Sample Pickup</t>
+    <t>1. Sample Pickup</t>
   </si>
   <si>
     <t>sdepart</t>
@@ -415,6 +415,9 @@
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="D9" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E9" s="7"/>
     </row>
     <row r="10">

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>type</t>
   </si>
@@ -99,7 +99,7 @@
     <t>stid</t>
   </si>
   <si>
-    <t>ST Barcode</t>
+    <t>STT Barcode</t>
   </si>
   <si>
     <t>select_one stype</t>
@@ -415,9 +415,7 @@
       <c r="C9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10">

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -45,30 +45,18 @@
     <t>simserial</t>
   </si>
   <si>
-    <t>select_one rider</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>Rider Name</t>
+    <t>select_one region</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Region</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>quick search('riders')</t>
-  </si>
-  <si>
-    <t>select_one region</t>
-  </si>
-  <si>
-    <t>region</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>quick search('regions')</t>
   </si>
   <si>
@@ -87,10 +75,43 @@
     <t>begin repeat</t>
   </si>
   <si>
+    <t>trepeat</t>
+  </si>
+  <si>
+    <t>New Sample Type or Condition</t>
+  </si>
+  <si>
+    <t>select_one stype</t>
+  </si>
+  <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>Scan Type</t>
+  </si>
+  <si>
+    <t>quick search('stypes')</t>
+  </si>
+  <si>
+    <t>select_one condition</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>Specimen Condition</t>
+  </si>
+  <si>
+    <t>quick search('conditions')</t>
+  </si>
+  <si>
+    <t>not(selected(${stype}, 'form'))</t>
+  </si>
+  <si>
     <t>srepeat</t>
   </si>
   <si>
-    <t>New Scan</t>
+    <t>New STT Barcode Scans</t>
   </si>
   <si>
     <t>barcode</t>
@@ -100,33 +121,6 @@
   </si>
   <si>
     <t>STT Barcode</t>
-  </si>
-  <si>
-    <t>select_one stype</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>Scan Type</t>
-  </si>
-  <si>
-    <t>quick search('stypes')</t>
-  </si>
-  <si>
-    <t>select_one condition</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>Specimen Condition</t>
-  </si>
-  <si>
-    <t>quick search('conditions')</t>
-  </si>
-  <si>
-    <t>not(selected(${stype}, 'form'))</t>
   </si>
   <si>
     <t>end repeat</t>
@@ -227,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -256,13 +250,19 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -295,6 +295,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.57"/>
+    <col customWidth="1" min="3" max="3" width="26.71"/>
     <col customWidth="1" min="5" max="5" width="45.0"/>
     <col customWidth="1" min="6" max="6" width="14.71"/>
   </cols>
@@ -385,38 +386,37 @@
       <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="E9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
@@ -431,24 +431,25 @@
       <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
@@ -463,29 +464,37 @@
       <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="E12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="7"/>
+      <c r="D15" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -501,7 +510,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -509,89 +518,89 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -606,19 +615,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -78,7 +78,7 @@
     <t>trepeat</t>
   </si>
   <si>
-    <t>New Sample Type or Condition</t>
+    <t>Sample Type</t>
   </si>
   <si>
     <t>select_one stype</t>
@@ -105,13 +105,13 @@
     <t>quick search('conditions')</t>
   </si>
   <si>
-    <t>not(selected(${stype}, 'form'))</t>
+    <t>not(selected(${stype}, 'request'))</t>
   </si>
   <si>
     <t>srepeat</t>
   </si>
   <si>
-    <t>New STT Barcode Scans</t>
+    <t>Scan</t>
   </si>
   <si>
     <t>barcode</t>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -249,9 +249,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -395,7 +392,7 @@
       <c r="B8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6"/>
@@ -518,29 +515,29 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
@@ -615,18 +612,18 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>51</v>
       </c>
     </row>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>type</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Scan Type</t>
   </si>
   <si>
-    <t>quick search('stypes')</t>
+    <t>quick search('stypes', 'contains', 'relevant', 'sdepart')</t>
   </si>
   <si>
     <t>select_one condition</t>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
   </si>
   <si>
     <t>1. Sample Pickup</t>
@@ -470,6 +473,7 @@
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="E13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
@@ -610,6 +614,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.43"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
@@ -618,13 +625,19 @@
       <c r="B1" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C2" s="7">
+        <v>2.016033001E9</v>
       </c>
     </row>
   </sheetData>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>type</t>
   </si>
@@ -51,13 +51,13 @@
     <t>region</t>
   </si>
   <si>
-    <t>Region</t>
+    <t>Facility Lab</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>quick search('regions')</t>
+    <t>quick search('labs')</t>
   </si>
   <si>
     <t>select_one facility</t>
@@ -138,16 +138,13 @@
     <t>list name</t>
   </si>
   <si>
-    <t>region_key</t>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>lab</t>
   </si>
   <si>
     <t>facility_key</t>
-  </si>
-  <si>
-    <t>rider</t>
-  </si>
-  <si>
-    <t>rider_key</t>
   </si>
   <si>
     <t>stype_key</t>
@@ -224,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -244,9 +241,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -259,13 +253,25 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,16 +365,16 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -377,64 +383,64 @@
       <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -442,60 +448,60 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -510,98 +516,92 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>43</v>
+      <c r="A4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>23</v>
+      <c r="A5" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -619,25 +619,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2.016033001E9</v>
+      <c r="C2" s="18">
+        <v>2.016041301E9</v>
       </c>
     </row>
   </sheetData>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -69,7 +69,7 @@
     <t>Facility</t>
   </si>
   <si>
-    <t>quick search('facilities', 'matches', 'region', ${region})</t>
+    <t>quick search('facilities', 'matches', 'lab', ${region})</t>
   </si>
   <si>
     <t>begin repeat</t>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -233,6 +233,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -371,10 +374,10 @@
       <c r="D6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -389,58 +392,58 @@
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -448,60 +451,60 @@
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -516,41 +519,41 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -561,7 +564,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -583,7 +586,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -594,14 +597,14 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="9"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -619,10 +622,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -630,14 +633,14 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="18">
-        <v>2.016041301E9</v>
+      <c r="C2" s="19">
+        <v>2.016050201E9</v>
       </c>
     </row>
   </sheetData>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -21,57 +21,66 @@
     <t>form_title</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>1. Sample Pickup</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>sdepart</t>
+  </si>
+  <si>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>facility_key</t>
+  </si>
+  <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>stype_key</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>cond_key</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
-    <t>region</t>
-  </si>
-  <si>
     <t>appearance</t>
   </si>
   <si>
     <t>relevant</t>
   </si>
   <si>
-    <t>lab_key</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>1. Sample Pickup</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>facility_key</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>stype_key</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
     <t>constraint</t>
   </si>
   <si>
@@ -81,12 +90,6 @@
     <t>start</t>
   </si>
   <si>
-    <t>cond_key</t>
-  </si>
-  <si>
-    <t>cond</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -108,9 +111,6 @@
     <t>quick search('labs')</t>
   </si>
   <si>
-    <t>sdepart</t>
-  </si>
-  <si>
     <t>select_one facility</t>
   </si>
   <si>
@@ -165,7 +165,7 @@
     <t>STT Barcode</t>
   </si>
   <si>
-    <t>regex(., '[\w\d]{9}\d{3}')</t>
+    <t>regex(., '^[\d\w]{9}\d{3}$')</t>
   </si>
   <si>
     <t>Scanned barcode does not match the required pattern</t>
@@ -206,10 +206,10 @@
       <b/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -240,44 +240,44 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -319,83 +319,83 @@
     <col customWidth="1" min="3" max="3" width="26.71"/>
     <col customWidth="1" min="5" max="5" width="45.0"/>
     <col customWidth="1" min="6" max="6" width="14.71"/>
-    <col customWidth="1" min="7" max="7" width="19.71"/>
+    <col customWidth="1" min="7" max="7" width="21.57"/>
     <col customWidth="1" min="8" max="8" width="18.43"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="15" t="s">
         <v>30</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>31</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -405,15 +405,15 @@
         <v>32</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="18"/>
@@ -423,27 +423,27 @@
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
+      <c r="D9" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>40</v>
@@ -454,13 +454,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>43</v>
@@ -474,7 +474,7 @@
       <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -496,7 +496,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="19"/>
       <c r="G12" s="19" t="s">
@@ -510,7 +510,7 @@
       <c r="A13" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="19"/>
@@ -519,7 +519,7 @@
       <c r="A14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="19"/>
@@ -554,10 +554,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="5"/>
@@ -585,57 +585,57 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="11"/>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -653,25 +653,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>11</v>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="16">
-        <v>2.016120801E9</v>
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2.016120802E9</v>
       </c>
     </row>
   </sheetData>

--- a/sdepart.xlsx
+++ b/sdepart.xlsx
@@ -18,6 +18,9 @@
     <t>list name</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
@@ -33,82 +36,79 @@
     <t>version</t>
   </si>
   <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>lab_key</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>facility_key</t>
+  </si>
+  <si>
+    <t>stype</t>
+  </si>
+  <si>
+    <t>stype_key</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
     <t>1. Sample Pickup</t>
   </si>
   <si>
-    <t>region</t>
+    <t>cond_key</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint message</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>deviceid</t>
+  </si>
+  <si>
+    <t>simserial</t>
+  </si>
+  <si>
+    <t>select_one region</t>
+  </si>
+  <si>
+    <t>Facility Lab</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>quick search('labs')</t>
   </si>
   <si>
     <t>sdepart</t>
-  </si>
-  <si>
-    <t>lab_key</t>
-  </si>
-  <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>facility</t>
-  </si>
-  <si>
-    <t>facility_key</t>
-  </si>
-  <si>
-    <t>stype</t>
-  </si>
-  <si>
-    <t>stype_key</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>cond_key</t>
-  </si>
-  <si>
-    <t>cond</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint message</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>deviceid</t>
-  </si>
-  <si>
-    <t>simserial</t>
-  </si>
-  <si>
-    <t>select_one region</t>
-  </si>
-  <si>
-    <t>Facility Lab</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>quick search('labs')</t>
   </si>
   <si>
     <t>select_one facility</t>
@@ -206,10 +206,10 @@
       <b/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -244,43 +244,43 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -324,126 +324,126 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="12" t="s">
+    <row r="4">
+      <c r="A4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
+    <row r="5">
+      <c r="A5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="19"/>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>30</v>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>40</v>
@@ -454,13 +454,13 @@
         <v>41</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>43</v>
@@ -471,10 +471,10 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -496,7 +496,7 @@
         <v>49</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="19"/>
       <c r="G12" s="19" t="s">
@@ -510,7 +510,7 @@
       <c r="A13" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="19"/>
@@ -519,7 +519,7 @@
       <c r="A14" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="19"/>
@@ -554,88 +554,88 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="11"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -654,24 +654,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="8">
-        <v>2.016120802E9</v>
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="17">
+        <v>2.016121501E9</v>
       </c>
     </row>
   </sheetData>
